--- a/steel_plant_bf.xlsx
+++ b/steel_plant_bf.xlsx
@@ -22,7 +22,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Latitude</t>
+    <t>Lat</t>
   </si>
   <si>
     <t>Long</t>
